--- a/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik august 2024.xlsx
+++ b/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik august 2024.xlsx
@@ -14,6 +14,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstPass" sheetId="2" r:id="rId6"/>
+    <sheet name="SecondPass" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
@@ -33,159 +35,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>1056930 - FRISKSNIT.dk</t>
+  </si>
+  <si>
+    <t>Rapporter » Kunder »</t>
+  </si>
+  <si>
+    <t>Omsætningsstatistik for kunder - perioden 01.08.24 - 31.08.24 - Frederikssund Hospital (FSH), Køkken</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Kunde / Vare</t>
+  </si>
+  <si>
+    <t>Enhed</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Omsætning</t>
+  </si>
+  <si>
+    <t>Løg - Rødløg - Skalotteløg</t>
+  </si>
+  <si>
+    <t>4231-1</t>
+  </si>
+  <si>
+    <t>Rødløg - Tern 5x5mm (1kg)</t>
+  </si>
+  <si>
+    <t>Porre - Forårsløg</t>
+  </si>
+  <si>
+    <t>4441-1</t>
+  </si>
+  <si>
+    <t>Porre - Skiver 2mm (1kg)</t>
+  </si>
+  <si>
+    <t>Frugtsnit</t>
+  </si>
+  <si>
+    <t>7505-32</t>
+  </si>
+  <si>
+    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
+  </si>
+  <si>
+    <t>7508-1</t>
+  </si>
+  <si>
+    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
+  </si>
+  <si>
+    <t>Kartofler</t>
+  </si>
+  <si>
+    <t>8551-3</t>
+  </si>
+  <si>
+    <t>Kartoffelbåde m/skræl (3kg vakuum)</t>
+  </si>
+  <si>
+    <t>Region H</t>
+  </si>
+  <si>
+    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
+  </si>
+  <si>
+    <t>Øko - Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8541-3</t>
+  </si>
+  <si>
+    <t>Kartofler - Skrællet Skiver 4mm (3kg Vakuum) - Økologisk</t>
+  </si>
+  <si>
+    <t>Ø8551-3</t>
+  </si>
+  <si>
+    <t>Kartoffelbåde m/skræl (3kg Vakuum) - Økologisk</t>
+  </si>
+  <si>
+    <t>Øko - Forkogte Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8607-3</t>
+  </si>
+  <si>
+    <t>Kartofler - MOS, kogte, uden tilsat salt (3kg) - Økologisk</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Øko%</t>
+  </si>
   <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t>1056930 - FRISKSNIT.dk</t>
-  </si>
-  <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>Rapporter » Kunder »</t>
-  </si>
-  <si>
     <t>9% filler,90% NrHeader,</t>
   </si>
   <si>
-    <t>Omsætningsstatistik for kunder - perioden 01.08.24 - 31.08.24 - Frederikssund Hospital (FSH), Køkken</t>
-  </si>
-  <si>
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>9% filler,90% QuantityHeader,</t>
   </si>
   <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Kunde / Vare</t>
-  </si>
-  <si>
-    <t>Enhed</t>
-  </si>
-  <si>
-    <t>Antal</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Omsætning</t>
-  </si>
-  <si>
     <t>4% filler,47% SingleMassHeader,47% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Løg - Rødløg - Skalotteløg</t>
-  </si>
-  <si>
-    <t>4231-1</t>
-  </si>
-  <si>
-    <t>Rødløg - Tern 5x5mm (1kg)</t>
-  </si>
-  <si>
     <t>9% filler,90% containsProduct,</t>
   </si>
   <si>
-    <t>Porre - Forårsløg</t>
-  </si>
-  <si>
-    <t>4441-1</t>
-  </si>
-  <si>
-    <t>Porre - Skiver 2mm (1kg)</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProductNr,47% containsAmount,</t>
   </si>
   <si>
-    <t>Frugtsnit</t>
-  </si>
-  <si>
-    <t>7505-32</t>
-  </si>
-  <si>
-    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
-  </si>
-  <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>7508-1</t>
-  </si>
-  <si>
-    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
-  </si>
-  <si>
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>Kartofler</t>
-  </si>
-  <si>
-    <t>8551-3</t>
-  </si>
-  <si>
-    <t>Kartoffelbåde m/skræl (3kg vakuum)</t>
-  </si>
-  <si>
     <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
   </si>
   <si>
-    <t>Region H</t>
-  </si>
-  <si>
-    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
-  </si>
-  <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>Øko - Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8541-3</t>
-  </si>
-  <si>
-    <t>Kartofler - Skrællet Skiver 4mm (3kg Vakuum) - Økologisk</t>
-  </si>
-  <si>
-    <t>Ø8551-3</t>
-  </si>
-  <si>
-    <t>Kartoffelbåde m/skræl (3kg Vakuum) - Økologisk</t>
-  </si>
-  <si>
-    <t>Øko - Forkogte Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8607-3</t>
-  </si>
-  <si>
-    <t>Kartofler - MOS, kogte, uden tilsat salt (3kg) - Økologisk</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Øko%</t>
+    <t xml:space="preserve">VARENR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -210,7 +224,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +296,26 @@
         <fgColor rgb="FF747D9B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,6 +339,9 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -313,6 +350,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1"/>
@@ -367,6 +405,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,6 +760,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="5"/>
+    <col min="5" max="5" bestFit="1" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <f>+D7*E7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>102.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>197.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>74</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4441.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="3">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
+        <f>SUM(F7:F11)</f>
+        <v>119</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(G7:G11)</f>
+        <v>6188.5199999999995</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <f ref="F15:F17" t="shared" si="1">+D15*E15</f>
+        <v>24</v>
+      </c>
+      <c r="G15" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4">
+        <f>SUM(F15:F17)</f>
+        <v>90</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SUM(G15:G17)</f>
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4">
+        <f>+F12+F18</f>
+        <v>209</v>
+      </c>
+      <c r="G20" s="4">
+        <f>+G12+G18</f>
+        <v>8513.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="9">
+        <f>+F18/F20</f>
+        <v>0.430622009569378</v>
+      </c>
+      <c r="G21" s="9">
+        <f>+G18/G20</f>
+        <v>0.27309503002283425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD4D16A-BD5B-421F-B393-75D03F67E6E5}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -712,425 +1170,825 @@
   <cols>
     <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
     <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="4"/>
-    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="4"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="5"/>
     <col min="5" max="5" bestFit="1" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="7.140625" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17" t="s">
-        <v>8</v>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="H6" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>4</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="28">
         <f>+D7*E7</f>
         <v>4</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="29">
         <v>102.68</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>20</v>
+      <c r="H7" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="26">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="28">
         <v>4</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="28">
         <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
         <v>4</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="29">
         <v>197.56</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>24</v>
+      <c r="H8" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="A9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="33">
         <v>3.2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="28">
         <v>5</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="28">
         <v>1094</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>28</v>
+      <c r="H9" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="28">
         <v>74</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="29">
         <v>4441.48</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>31</v>
+      <c r="H10" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="A11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="26">
         <v>3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="28">
         <v>7</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="29">
         <v>352.8</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>35</v>
+      <c r="H11" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="32">
+        <v>25</v>
+      </c>
+      <c r="B12" s="34">
         <v>3110</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="33">
+      <c r="F12" s="35">
         <f>SUM(F7:F11)</f>
         <v>119</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="36">
         <f>SUM(G7:G11)</f>
         <v>6188.5199999999995</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>38</v>
+      <c r="H12" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="36" t="s">
-        <v>39</v>
+      <c r="H13" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="28">
         <v>8</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="28">
         <f ref="F15:F17" t="shared" si="1">+D15*E15</f>
         <v>24</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="28">
         <v>630</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="A16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="26">
         <v>3</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="28">
         <v>2</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="28">
         <v>120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="26">
         <v>3</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="28">
         <v>20</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="28">
         <v>1575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="32">
+        <v>25</v>
+      </c>
+      <c r="B18" s="34">
         <v>3110</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="33">
+      <c r="F18" s="35">
         <f>SUM(F15:F17)</f>
         <v>90</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="35">
         <f>SUM(G15:G17)</f>
         <v>2325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="33">
+      <c r="F20" s="35">
         <f>+F12+F18</f>
         <v>209</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="36">
         <f>+G12+G18</f>
         <v>8513.52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="37">
+      <c r="F21" s="39">
         <f>+F18/F20</f>
         <v>0.430622009569378</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="39">
+        <f>+G18/G20</f>
+        <v>0.27309503002283425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED477F-E179-4DCF-8BFC-84EA2795B6F1}">
+  <dimension ref="A2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="57.7109375" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="6.5703125" customWidth="1" style="5"/>
+    <col min="5" max="5" bestFit="1" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46">
+        <v>4</v>
+      </c>
+      <c r="F7" s="47">
+        <f>+D7*E7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>102.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="46">
+        <v>4</v>
+      </c>
+      <c r="F8" s="47">
+        <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>197.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="46">
+        <v>5</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="46">
+        <v>74</v>
+      </c>
+      <c r="F10" s="47">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4441.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="46">
+        <v>7</v>
+      </c>
+      <c r="F11" s="47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="3">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
+        <f>SUM(F7:F11)</f>
+        <v>119</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(G7:G11)</f>
+        <v>6188.5199999999995</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="46">
+        <v>8</v>
+      </c>
+      <c r="F15" s="47">
+        <f ref="F15:F17" t="shared" si="1">+D15*E15</f>
+        <v>24</v>
+      </c>
+      <c r="G15" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="46">
+        <v>2</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="46">
+        <v>20</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4">
+        <f>SUM(F15:F17)</f>
+        <v>90</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SUM(G15:G17)</f>
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4">
+        <f>+F12+F18</f>
+        <v>209</v>
+      </c>
+      <c r="G20" s="4">
+        <f>+G12+G18</f>
+        <v>8513.52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="9">
+        <f>+F18/F20</f>
+        <v>0.430622009569378</v>
+      </c>
+      <c r="G21" s="9">
         <f>+G18/G20</f>
         <v>0.27309503002283425</v>
       </c>

--- a/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik august 2024.xlsx
+++ b/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik august 2024.xlsx
@@ -181,7 +181,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -283,7 +283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -410,19 +410,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1159,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD4D16A-BD5B-421F-B393-75D03F67E6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF247FFA-BFB6-4360-B47B-10886D467F92}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED477F-E179-4DCF-8BFC-84EA2795B6F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D80CE8-D55D-4FF6-9EE9-C463E83FD89A}">
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1661,16 +1671,16 @@
       <c r="B6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1684,16 +1694,16 @@
       <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="48">
         <v>4</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="50">
         <f>+D7*E7</f>
         <v>4</v>
       </c>
@@ -1708,16 +1718,16 @@
       <c r="B8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="48">
         <v>4</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="50">
         <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
         <v>4</v>
       </c>
@@ -1732,16 +1742,16 @@
       <c r="B9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>3.2</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="48">
         <v>5</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1756,16 +1766,16 @@
       <c r="B10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="48">
         <v>74</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -1780,16 +1790,16 @@
       <c r="B11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="48">
         <v>7</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1801,15 +1811,15 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="43">
         <v>3110</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4">
+      <c r="E12" s="49"/>
+      <c r="F12" s="51">
         <f>SUM(F7:F11)</f>
         <v>119</v>
       </c>
@@ -1830,16 +1840,16 @@
       <c r="B14" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="47" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1853,16 +1863,16 @@
       <c r="B15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="48">
         <v>8</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="50">
         <f ref="F15:F17" t="shared" si="1">+D15*E15</f>
         <v>24</v>
       </c>
@@ -1877,16 +1887,16 @@
       <c r="B16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="48">
         <v>2</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="50">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1901,16 +1911,16 @@
       <c r="B17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="48">
         <v>20</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="50">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -1922,15 +1932,15 @@
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="43">
         <v>3110</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4">
+      <c r="E18" s="49"/>
+      <c r="F18" s="51">
         <f>SUM(F15:F17)</f>
         <v>90</v>
       </c>
